--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Icam1-Itgax.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Icam1-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H2">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I2">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J2">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>26.3130163749646</v>
+        <v>0.020618</v>
       </c>
       <c r="N2">
-        <v>26.3130163749646</v>
+        <v>0.061854</v>
       </c>
       <c r="O2">
-        <v>0.2284783064668124</v>
+        <v>0.0001626961273947449</v>
       </c>
       <c r="P2">
-        <v>0.2284783064668124</v>
+        <v>0.000162696127394745</v>
       </c>
       <c r="Q2">
-        <v>263.7829830567391</v>
+        <v>0.36375069393</v>
       </c>
       <c r="R2">
-        <v>263.7829830567391</v>
+        <v>3.27375624537</v>
       </c>
       <c r="S2">
-        <v>0.006093752417427403</v>
+        <v>7.159187456300294E-06</v>
       </c>
       <c r="T2">
-        <v>0.006093752417427403</v>
+        <v>7.159187456300296E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H3">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I3">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J3">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.8890781161981</v>
+        <v>32.34376366666667</v>
       </c>
       <c r="N3">
-        <v>51.8890781161981</v>
+        <v>97.031291</v>
       </c>
       <c r="O3">
-        <v>0.4505575690437743</v>
+        <v>0.2552238380995985</v>
       </c>
       <c r="P3">
-        <v>0.4505575690437743</v>
+        <v>0.2552238380995986</v>
       </c>
       <c r="Q3">
-        <v>520.1781361173689</v>
+        <v>570.621130956345</v>
       </c>
       <c r="R3">
-        <v>520.1781361173689</v>
+        <v>5135.590178607104</v>
       </c>
       <c r="S3">
-        <v>0.01201683572505613</v>
+        <v>0.01123072398544676</v>
       </c>
       <c r="T3">
-        <v>0.01201683572505613</v>
+        <v>0.01123072398544676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H4">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I4">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J4">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.9642719874277</v>
+        <v>54.17663333333333</v>
       </c>
       <c r="N4">
-        <v>36.9642719874277</v>
+        <v>162.5299</v>
       </c>
       <c r="O4">
-        <v>0.3209641244894135</v>
+        <v>0.4275064719477343</v>
       </c>
       <c r="P4">
-        <v>0.3209641244894135</v>
+        <v>0.4275064719477343</v>
       </c>
       <c r="Q4">
-        <v>370.5597941496912</v>
+        <v>955.8050232705001</v>
       </c>
       <c r="R4">
-        <v>370.5597941496912</v>
+        <v>8602.245209434499</v>
       </c>
       <c r="S4">
-        <v>0.008560444708123456</v>
+        <v>0.01881175059581824</v>
       </c>
       <c r="T4">
-        <v>0.008560444708123456</v>
+        <v>0.01881175059581824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.7272453100143</v>
+        <v>17.642385</v>
       </c>
       <c r="H5">
-        <v>18.7272453100143</v>
+        <v>52.927155</v>
       </c>
       <c r="I5">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J5">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.3130163749646</v>
+        <v>40.17406266666666</v>
       </c>
       <c r="N5">
-        <v>26.3130163749646</v>
+        <v>120.522188</v>
       </c>
       <c r="O5">
-        <v>0.2284783064668124</v>
+        <v>0.3170125335910596</v>
       </c>
       <c r="P5">
-        <v>0.2284783064668124</v>
+        <v>0.3170125335910596</v>
       </c>
       <c r="Q5">
-        <v>492.7703125003853</v>
+        <v>708.76628057946</v>
       </c>
       <c r="R5">
-        <v>492.7703125003853</v>
+        <v>6378.89652521514</v>
       </c>
       <c r="S5">
-        <v>0.01138367702206848</v>
+        <v>0.01394963844756145</v>
       </c>
       <c r="T5">
-        <v>0.01138367702206848</v>
+        <v>0.01394963844756145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.7272453100143</v>
+        <v>17.642385</v>
       </c>
       <c r="H6">
-        <v>18.7272453100143</v>
+        <v>52.927155</v>
       </c>
       <c r="I6">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J6">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>51.8890781161981</v>
+        <v>0.01197066666666667</v>
       </c>
       <c r="N6">
-        <v>51.8890781161981</v>
+        <v>0.035912</v>
       </c>
       <c r="O6">
-        <v>0.4505575690437743</v>
+        <v>9.446023421282504E-05</v>
       </c>
       <c r="P6">
-        <v>0.4505575690437743</v>
+        <v>9.446023421282505E-05</v>
       </c>
       <c r="Q6">
-        <v>971.7394947925366</v>
+        <v>0.21119111004</v>
       </c>
       <c r="R6">
-        <v>971.7394947925366</v>
+        <v>1.90071999036</v>
       </c>
       <c r="S6">
-        <v>0.02244852881289918</v>
+        <v>4.156574189715397E-06</v>
       </c>
       <c r="T6">
-        <v>0.02244852881289918</v>
+        <v>4.156574189715398E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.7272453100143</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H7">
-        <v>18.7272453100143</v>
+        <v>56.364044</v>
       </c>
       <c r="I7">
-        <v>0.04982388568133937</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J7">
-        <v>0.04982388568133937</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>36.9642719874277</v>
+        <v>0.020618</v>
       </c>
       <c r="N7">
-        <v>36.9642719874277</v>
+        <v>0.061854</v>
       </c>
       <c r="O7">
-        <v>0.3209641244894135</v>
+        <v>0.0001626961273947449</v>
       </c>
       <c r="P7">
-        <v>0.3209641244894135</v>
+        <v>0.000162696127394745</v>
       </c>
       <c r="Q7">
-        <v>692.2389892146484</v>
+        <v>0.3873712863973333</v>
       </c>
       <c r="R7">
-        <v>692.2389892146484</v>
+        <v>3.486341577576</v>
       </c>
       <c r="S7">
-        <v>0.01599167984637171</v>
+        <v>7.624077976440596E-06</v>
       </c>
       <c r="T7">
-        <v>0.01599167984637171</v>
+        <v>7.6240779764406E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H8">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I8">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J8">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.3130163749646</v>
+        <v>32.34376366666667</v>
       </c>
       <c r="N8">
-        <v>26.3130163749646</v>
+        <v>97.031291</v>
       </c>
       <c r="O8">
-        <v>0.2284783064668124</v>
+        <v>0.2552238380995985</v>
       </c>
       <c r="P8">
-        <v>0.2284783064668124</v>
+        <v>0.2552238380995986</v>
       </c>
       <c r="Q8">
-        <v>1054.401648728102</v>
+        <v>607.6751061445337</v>
       </c>
       <c r="R8">
-        <v>1054.401648728102</v>
+        <v>5469.075955300804</v>
       </c>
       <c r="S8">
-        <v>0.02435813910897449</v>
+        <v>0.01196000466806833</v>
       </c>
       <c r="T8">
-        <v>0.02435813910897449</v>
+        <v>0.01196000466806834</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H9">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I9">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J9">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.8890781161981</v>
+        <v>54.17663333333333</v>
       </c>
       <c r="N9">
-        <v>51.8890781161981</v>
+        <v>162.5299</v>
       </c>
       <c r="O9">
-        <v>0.4505575690437743</v>
+        <v>0.4275064719477343</v>
       </c>
       <c r="P9">
-        <v>0.4505575690437743</v>
+        <v>0.4275064719477343</v>
       </c>
       <c r="Q9">
-        <v>2079.272430687802</v>
+        <v>1017.871381657289</v>
       </c>
       <c r="R9">
-        <v>2079.272430687802</v>
+        <v>9160.842434915599</v>
       </c>
       <c r="S9">
-        <v>0.04803407427638549</v>
+        <v>0.02003331443565642</v>
       </c>
       <c r="T9">
-        <v>0.04803407427638549</v>
+        <v>0.02003331443565643</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H10">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I10">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J10">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.9642719874277</v>
+        <v>40.17406266666666</v>
       </c>
       <c r="N10">
-        <v>36.9642719874277</v>
+        <v>120.522188</v>
       </c>
       <c r="O10">
-        <v>0.3209641244894135</v>
+        <v>0.3170125335910596</v>
       </c>
       <c r="P10">
-        <v>0.3209641244894135</v>
+        <v>0.3170125335910596</v>
       </c>
       <c r="Q10">
-        <v>1481.213281372809</v>
+        <v>754.790878600919</v>
       </c>
       <c r="R10">
-        <v>1481.213281372809</v>
+        <v>6793.117907408272</v>
       </c>
       <c r="S10">
-        <v>0.03421807923125059</v>
+        <v>0.014855475138281</v>
       </c>
       <c r="T10">
-        <v>0.03421807923125059</v>
+        <v>0.01485547513828101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.2023791341376</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H11">
-        <v>51.2023791341376</v>
+        <v>56.364044</v>
       </c>
       <c r="I11">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J11">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>26.3130163749646</v>
+        <v>0.01197066666666667</v>
       </c>
       <c r="N11">
-        <v>26.3130163749646</v>
+        <v>0.035912</v>
       </c>
       <c r="O11">
-        <v>0.2284783064668124</v>
+        <v>9.446023421282504E-05</v>
       </c>
       <c r="P11">
-        <v>0.2284783064668124</v>
+        <v>9.446023421282505E-05</v>
       </c>
       <c r="Q11">
-        <v>1347.289040593708</v>
+        <v>0.2249050609031111</v>
       </c>
       <c r="R11">
-        <v>1347.289040593708</v>
+        <v>2.024145548128</v>
       </c>
       <c r="S11">
-        <v>0.03112424369818199</v>
+        <v>4.426486375819424E-06</v>
       </c>
       <c r="T11">
-        <v>0.03112424369818199</v>
+        <v>4.426486375819427E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.2023791341376</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H12">
-        <v>51.2023791341376</v>
+        <v>134.465311</v>
       </c>
       <c r="I12">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J12">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>51.8890781161981</v>
+        <v>0.020618</v>
       </c>
       <c r="N12">
-        <v>51.8890781161981</v>
+        <v>0.061854</v>
       </c>
       <c r="O12">
-        <v>0.4505575690437743</v>
+        <v>0.0001626961273947449</v>
       </c>
       <c r="P12">
-        <v>0.4505575690437743</v>
+        <v>0.000162696127394745</v>
       </c>
       <c r="Q12">
-        <v>2656.844250626458</v>
+        <v>0.9241352607326666</v>
       </c>
       <c r="R12">
-        <v>2656.844250626458</v>
+        <v>8.317217346593999</v>
       </c>
       <c r="S12">
-        <v>0.06137678362482014</v>
+        <v>1.818843971150004E-05</v>
       </c>
       <c r="T12">
-        <v>0.06137678362482014</v>
+        <v>1.818843971150004E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.2023791341376</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H13">
-        <v>51.2023791341376</v>
+        <v>134.465311</v>
       </c>
       <c r="I13">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J13">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.9642719874277</v>
+        <v>32.34376366666667</v>
       </c>
       <c r="N13">
-        <v>36.9642719874277</v>
+        <v>97.031291</v>
       </c>
       <c r="O13">
-        <v>0.3209641244894135</v>
+        <v>0.2552238380995985</v>
       </c>
       <c r="P13">
-        <v>0.3209641244894135</v>
+        <v>0.2552238380995986</v>
       </c>
       <c r="Q13">
-        <v>1892.658668717655</v>
+        <v>1449.704746782944</v>
       </c>
       <c r="R13">
-        <v>1892.658668717655</v>
+        <v>13047.3427210465</v>
       </c>
       <c r="S13">
-        <v>0.04372303779498292</v>
+        <v>0.02853247625832632</v>
       </c>
       <c r="T13">
-        <v>0.04372303779498292</v>
+        <v>0.02853247625832633</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>254.357849436458</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H14">
-        <v>254.357849436458</v>
+        <v>134.465311</v>
       </c>
       <c r="I14">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J14">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.3130163749646</v>
+        <v>54.17663333333333</v>
       </c>
       <c r="N14">
-        <v>26.3130163749646</v>
+        <v>162.5299</v>
       </c>
       <c r="O14">
-        <v>0.2284783064668124</v>
+        <v>0.4275064719477343</v>
       </c>
       <c r="P14">
-        <v>0.2284783064668124</v>
+        <v>0.4275064719477343</v>
       </c>
       <c r="Q14">
-        <v>6692.9222573223</v>
+        <v>2428.292616699877</v>
       </c>
       <c r="R14">
-        <v>6692.9222573223</v>
+        <v>21854.6335502989</v>
       </c>
       <c r="S14">
-        <v>0.1546157781392543</v>
+        <v>0.04779262921502457</v>
       </c>
       <c r="T14">
-        <v>0.1546157781392543</v>
+        <v>0.04779262921502458</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>254.357849436458</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H15">
-        <v>254.357849436458</v>
+        <v>134.465311</v>
       </c>
       <c r="I15">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J15">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>51.8890781161981</v>
+        <v>40.17406266666666</v>
       </c>
       <c r="N15">
-        <v>51.8890781161981</v>
+        <v>120.522188</v>
       </c>
       <c r="O15">
-        <v>0.4505575690437743</v>
+        <v>0.3170125335910596</v>
       </c>
       <c r="P15">
-        <v>0.4505575690437743</v>
+        <v>0.3170125335910596</v>
       </c>
       <c r="Q15">
-        <v>13198.39431887652</v>
+        <v>1800.672610202274</v>
       </c>
       <c r="R15">
-        <v>13198.39431887652</v>
+        <v>16206.05349182047</v>
       </c>
       <c r="S15">
-        <v>0.3049011970173758</v>
+        <v>0.03544007744585755</v>
       </c>
       <c r="T15">
-        <v>0.3049011970173758</v>
+        <v>0.03544007744585757</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>254.357849436458</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H16">
-        <v>254.357849436458</v>
+        <v>134.465311</v>
       </c>
       <c r="I16">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J16">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>36.9642719874277</v>
+        <v>0.01197066666666667</v>
       </c>
       <c r="N16">
-        <v>36.9642719874277</v>
+        <v>0.035912</v>
       </c>
       <c r="O16">
-        <v>0.3209641244894135</v>
+        <v>9.446023421282504E-05</v>
       </c>
       <c r="P16">
-        <v>0.3209641244894135</v>
+        <v>9.446023421282505E-05</v>
       </c>
       <c r="Q16">
-        <v>9402.152728706416</v>
+        <v>0.5365464720702221</v>
       </c>
       <c r="R16">
-        <v>9402.152728706416</v>
+        <v>4.828918248631999</v>
       </c>
       <c r="S16">
-        <v>0.2172027560521313</v>
+        <v>1.056008094738237E-05</v>
       </c>
       <c r="T16">
-        <v>0.2172027560521313</v>
+        <v>1.056008094738238E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.48505491324496</v>
+        <v>51.213492</v>
       </c>
       <c r="H17">
-        <v>1.48505491324496</v>
+        <v>153.640476</v>
       </c>
       <c r="I17">
-        <v>0.003950992524696721</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="J17">
-        <v>0.003950992524696721</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>26.3130163749646</v>
+        <v>0.020618</v>
       </c>
       <c r="N17">
-        <v>26.3130163749646</v>
+        <v>0.061854</v>
       </c>
       <c r="O17">
-        <v>0.2284783064668124</v>
+        <v>0.0001626961273947449</v>
       </c>
       <c r="P17">
-        <v>0.2284783064668124</v>
+        <v>0.000162696127394745</v>
       </c>
       <c r="Q17">
-        <v>39.07627424993627</v>
+        <v>1.055919778056</v>
       </c>
       <c r="R17">
-        <v>39.07627424993627</v>
+        <v>9.503278002504</v>
       </c>
       <c r="S17">
-        <v>0.0009027160809057422</v>
+        <v>2.078216689635417E-05</v>
       </c>
       <c r="T17">
-        <v>0.0009027160809057422</v>
+        <v>2.078216689635418E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.48505491324496</v>
+        <v>51.213492</v>
       </c>
       <c r="H18">
-        <v>1.48505491324496</v>
+        <v>153.640476</v>
       </c>
       <c r="I18">
-        <v>0.003950992524696721</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="J18">
-        <v>0.003950992524696721</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.8890781161981</v>
+        <v>32.34376366666667</v>
       </c>
       <c r="N18">
-        <v>51.8890781161981</v>
+        <v>97.031291</v>
       </c>
       <c r="O18">
-        <v>0.4505575690437743</v>
+        <v>0.2552238380995985</v>
       </c>
       <c r="P18">
-        <v>0.4505575690437743</v>
+        <v>0.2552238380995986</v>
       </c>
       <c r="Q18">
-        <v>77.05813040021152</v>
+        <v>1656.437081792724</v>
       </c>
       <c r="R18">
-        <v>77.05813040021152</v>
+        <v>14907.93373613452</v>
       </c>
       <c r="S18">
-        <v>0.001780149587237479</v>
+        <v>0.03260129472193728</v>
       </c>
       <c r="T18">
-        <v>0.001780149587237479</v>
+        <v>0.0326012947219373</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>51.213492</v>
+      </c>
+      <c r="H19">
+        <v>153.640476</v>
+      </c>
+      <c r="I19">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J19">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.17663333333333</v>
+      </c>
+      <c r="N19">
+        <v>162.5299</v>
+      </c>
+      <c r="O19">
+        <v>0.4275064719477343</v>
+      </c>
+      <c r="P19">
+        <v>0.4275064719477343</v>
+      </c>
+      <c r="Q19">
+        <v>2774.5745778036</v>
+      </c>
+      <c r="R19">
+        <v>24971.1712002324</v>
+      </c>
+      <c r="S19">
+        <v>0.05460800445319227</v>
+      </c>
+      <c r="T19">
+        <v>0.05460800445319228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>51.213492</v>
+      </c>
+      <c r="H20">
+        <v>153.640476</v>
+      </c>
+      <c r="I20">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J20">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>40.17406266666666</v>
+      </c>
+      <c r="N20">
+        <v>120.522188</v>
+      </c>
+      <c r="O20">
+        <v>0.3170125335910596</v>
+      </c>
+      <c r="P20">
+        <v>0.3170125335910596</v>
+      </c>
+      <c r="Q20">
+        <v>2057.454036986832</v>
+      </c>
+      <c r="R20">
+        <v>18517.08633288149</v>
+      </c>
+      <c r="S20">
+        <v>0.04049394098570464</v>
+      </c>
+      <c r="T20">
+        <v>0.04049394098570465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>51.213492</v>
+      </c>
+      <c r="H21">
+        <v>153.640476</v>
+      </c>
+      <c r="I21">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J21">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01197066666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.035912</v>
+      </c>
+      <c r="O21">
+        <v>9.446023421282504E-05</v>
+      </c>
+      <c r="P21">
+        <v>9.446023421282505E-05</v>
+      </c>
+      <c r="Q21">
+        <v>0.613059641568</v>
+      </c>
+      <c r="R21">
+        <v>5.517536774112</v>
+      </c>
+      <c r="S21">
+        <v>1.20659808190557E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.20659808190557E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.48505491324496</v>
-      </c>
-      <c r="H19">
-        <v>1.48505491324496</v>
-      </c>
-      <c r="I19">
-        <v>0.003950992524696721</v>
-      </c>
-      <c r="J19">
-        <v>0.003950992524696721</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>36.9642719874277</v>
-      </c>
-      <c r="N19">
-        <v>36.9642719874277</v>
-      </c>
-      <c r="O19">
-        <v>0.3209641244894135</v>
-      </c>
-      <c r="P19">
-        <v>0.3209641244894135</v>
-      </c>
-      <c r="Q19">
-        <v>54.89397372945255</v>
-      </c>
-      <c r="R19">
-        <v>54.89397372945255</v>
-      </c>
-      <c r="S19">
-        <v>0.0012681268565535</v>
-      </c>
-      <c r="T19">
-        <v>0.0012681268565535</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H22">
+        <v>800.119003</v>
+      </c>
+      <c r="I22">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J22">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.020618</v>
+      </c>
+      <c r="N22">
+        <v>0.061854</v>
+      </c>
+      <c r="O22">
+        <v>0.0001626961273947449</v>
+      </c>
+      <c r="P22">
+        <v>0.000162696127394745</v>
+      </c>
+      <c r="Q22">
+        <v>5.498951201284667</v>
+      </c>
+      <c r="R22">
+        <v>49.490560811562</v>
+      </c>
+      <c r="S22">
+        <v>0.0001082280339803849</v>
+      </c>
+      <c r="T22">
+        <v>0.0001082280339803849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H23">
+        <v>800.119003</v>
+      </c>
+      <c r="I23">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J23">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>32.34376366666667</v>
+      </c>
+      <c r="N23">
+        <v>97.031291</v>
+      </c>
+      <c r="O23">
+        <v>0.2552238380995985</v>
+      </c>
+      <c r="P23">
+        <v>0.2552238380995986</v>
+      </c>
+      <c r="Q23">
+        <v>8626.28664608032</v>
+      </c>
+      <c r="R23">
+        <v>77636.57981472288</v>
+      </c>
+      <c r="S23">
+        <v>0.1697789287597991</v>
+      </c>
+      <c r="T23">
+        <v>0.1697789287597991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H24">
+        <v>800.119003</v>
+      </c>
+      <c r="I24">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J24">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.17663333333333</v>
+      </c>
+      <c r="N24">
+        <v>162.5299</v>
+      </c>
+      <c r="O24">
+        <v>0.4275064719477343</v>
+      </c>
+      <c r="P24">
+        <v>0.4275064719477343</v>
+      </c>
+      <c r="Q24">
+        <v>14449.25128285441</v>
+      </c>
+      <c r="R24">
+        <v>130043.2615456897</v>
+      </c>
+      <c r="S24">
+        <v>0.2843840582667015</v>
+      </c>
+      <c r="T24">
+        <v>0.2843840582667016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H25">
+        <v>800.119003</v>
+      </c>
+      <c r="I25">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J25">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>40.17406266666666</v>
+      </c>
+      <c r="N25">
+        <v>120.522188</v>
+      </c>
+      <c r="O25">
+        <v>0.3170125335910596</v>
+      </c>
+      <c r="P25">
+        <v>0.3170125335910596</v>
+      </c>
+      <c r="Q25">
+        <v>10714.67698910429</v>
+      </c>
+      <c r="R25">
+        <v>96432.09290193857</v>
+      </c>
+      <c r="S25">
+        <v>0.2108817450488947</v>
+      </c>
+      <c r="T25">
+        <v>0.2108817450488948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H26">
+        <v>800.119003</v>
+      </c>
+      <c r="I26">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J26">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.01197066666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.035912</v>
+      </c>
+      <c r="O26">
+        <v>9.446023421282504E-05</v>
+      </c>
+      <c r="P26">
+        <v>9.446023421282505E-05</v>
+      </c>
+      <c r="Q26">
+        <v>3.192652626192889</v>
+      </c>
+      <c r="R26">
+        <v>28.733873635736</v>
+      </c>
+      <c r="S26">
+        <v>6.283643994411971E-05</v>
+      </c>
+      <c r="T26">
+        <v>6.283643994411974E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H27">
+        <v>5.280167</v>
+      </c>
+      <c r="I27">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J27">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.020618</v>
+      </c>
+      <c r="N27">
+        <v>0.061854</v>
+      </c>
+      <c r="O27">
+        <v>0.0001626961273947449</v>
+      </c>
+      <c r="P27">
+        <v>0.000162696127394745</v>
+      </c>
+      <c r="Q27">
+        <v>0.03628882773533333</v>
+      </c>
+      <c r="R27">
+        <v>0.326599449618</v>
+      </c>
+      <c r="S27">
+        <v>7.142213737649557E-07</v>
+      </c>
+      <c r="T27">
+        <v>7.142213737649561E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H28">
+        <v>5.280167</v>
+      </c>
+      <c r="I28">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J28">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>32.34376366666667</v>
+      </c>
+      <c r="N28">
+        <v>97.031291</v>
+      </c>
+      <c r="O28">
+        <v>0.2552238380995985</v>
+      </c>
+      <c r="P28">
+        <v>0.2552238380995986</v>
+      </c>
+      <c r="Q28">
+        <v>56.92682452284411</v>
+      </c>
+      <c r="R28">
+        <v>512.341420705597</v>
+      </c>
+      <c r="S28">
+        <v>0.001120409706020745</v>
+      </c>
+      <c r="T28">
+        <v>0.001120409706020746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H29">
+        <v>5.280167</v>
+      </c>
+      <c r="I29">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J29">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>54.17663333333333</v>
+      </c>
+      <c r="N29">
+        <v>162.5299</v>
+      </c>
+      <c r="O29">
+        <v>0.4275064719477343</v>
+      </c>
+      <c r="P29">
+        <v>0.4275064719477343</v>
+      </c>
+      <c r="Q29">
+        <v>95.35389049925554</v>
+      </c>
+      <c r="R29">
+        <v>858.1850144932999</v>
+      </c>
+      <c r="S29">
+        <v>0.001876714981341237</v>
+      </c>
+      <c r="T29">
+        <v>0.001876714981341238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H30">
+        <v>5.280167</v>
+      </c>
+      <c r="I30">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J30">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>40.17406266666666</v>
+      </c>
+      <c r="N30">
+        <v>120.522188</v>
+      </c>
+      <c r="O30">
+        <v>0.3170125335910596</v>
+      </c>
+      <c r="P30">
+        <v>0.3170125335910596</v>
+      </c>
+      <c r="Q30">
+        <v>70.70858664948844</v>
+      </c>
+      <c r="R30">
+        <v>636.3772798453959</v>
+      </c>
+      <c r="S30">
+        <v>0.001391656524760214</v>
+      </c>
+      <c r="T30">
+        <v>0.001391656524760214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H31">
+        <v>5.280167</v>
+      </c>
+      <c r="I31">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J31">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.01197066666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.035912</v>
+      </c>
+      <c r="O31">
+        <v>9.446023421282504E-05</v>
+      </c>
+      <c r="P31">
+        <v>9.446023421282505E-05</v>
+      </c>
+      <c r="Q31">
+        <v>0.02106903970044444</v>
+      </c>
+      <c r="R31">
+        <v>0.189621357304</v>
+      </c>
+      <c r="S31">
+        <v>4.146719367324197E-07</v>
+      </c>
+      <c r="T31">
+        <v>4.146719367324199E-07</v>
       </c>
     </row>
   </sheetData>
